--- a/datatest2.xlsx
+++ b/datatest2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zahira\Documents\1 STIS\STIS smt 5\1 Project RPL\STIS-GRAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2284C407-1AE9-438D-83FA-B629A4E8EB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E9B410-D824-4B6D-AB70-92E746C47299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{AEADBA10-2DCC-4184-BD2C-885FF6D441DF}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{AEADBA10-2DCC-4184-BD2C-885FF6D441DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -239,7 +239,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -247,17 +247,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,12 +595,17 @@
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:K1048576"/>
+      <selection activeCell="E1" sqref="E1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
@@ -597,11 +621,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
@@ -618,11 +642,11 @@
       <c r="D2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
@@ -639,11 +663,11 @@
       <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
@@ -660,11 +684,11 @@
       <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
@@ -681,11 +705,11 @@
       <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
@@ -702,11 +726,11 @@
       <c r="D6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
     </row>
@@ -723,11 +747,11 @@
       <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
     </row>
@@ -744,11 +768,11 @@
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
@@ -765,11 +789,11 @@
       <c r="D9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
@@ -786,11 +810,11 @@
       <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
@@ -807,11 +831,11 @@
       <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
     </row>
@@ -828,11 +852,11 @@
       <c r="D12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
     </row>
@@ -849,11 +873,11 @@
       <c r="D13" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
     </row>
@@ -870,11 +894,11 @@
       <c r="D14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
     </row>
@@ -891,11 +915,11 @@
       <c r="D15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
     </row>
@@ -912,11 +936,11 @@
       <c r="D16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
     </row>
@@ -933,11 +957,11 @@
       <c r="D17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
     </row>
@@ -954,11 +978,11 @@
       <c r="D18" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
     </row>
@@ -975,11 +999,11 @@
       <c r="D19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
     </row>
@@ -996,11 +1020,11 @@
       <c r="D20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
@@ -1017,11 +1041,11 @@
       <c r="D21" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
